--- a/resources/pop.xlsx
+++ b/resources/pop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Inventario_Casual_Simples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilson\Documents\Projeto_SysInventFlor\SysInventFlor\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$451</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UA</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>VARHA</t>
+  </si>
+  <si>
+    <t>ESTRATO</t>
   </si>
 </sst>
 </file>
@@ -356,50 +359,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C453"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>C2/10</f>
+        <f>D2/10</f>
         <v>8</v>
       </c>
       <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" si="0">C3/10</f>
+        <f t="shared" ref="B3:B66" si="0">D3/10</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -408,10 +420,13 @@
         <v>9.6</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -420,10 +435,13 @@
         <v>9.4</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -432,10 +450,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -444,10 +465,13 @@
         <v>8.5</v>
       </c>
       <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -456,10 +480,13 @@
         <v>7.3</v>
       </c>
       <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -468,10 +495,13 @@
         <v>6.3</v>
       </c>
       <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -480,10 +510,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -492,10 +525,13 @@
         <v>10.1</v>
       </c>
       <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -504,10 +540,13 @@
         <v>11.5</v>
       </c>
       <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -516,10 +555,13 @@
         <v>15.6</v>
       </c>
       <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -528,10 +570,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -540,10 +585,13 @@
         <v>10.9</v>
       </c>
       <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -552,10 +600,13 @@
         <v>11.1</v>
       </c>
       <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -564,10 +615,13 @@
         <v>9.9</v>
       </c>
       <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -576,10 +630,13 @@
         <v>6.9</v>
       </c>
       <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -588,10 +645,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -600,10 +660,13 @@
         <v>10.3</v>
       </c>
       <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -612,10 +675,13 @@
         <v>9.1</v>
       </c>
       <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -624,10 +690,13 @@
         <v>12.3</v>
       </c>
       <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -636,10 +705,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -648,10 +720,13 @@
         <v>12.8</v>
       </c>
       <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -660,10 +735,13 @@
         <v>6.8</v>
       </c>
       <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -672,10 +750,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -684,10 +765,13 @@
         <v>8.6</v>
       </c>
       <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -696,10 +780,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -708,10 +795,13 @@
         <v>9.5</v>
       </c>
       <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -720,10 +810,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -732,10 +825,13 @@
         <v>7.4</v>
       </c>
       <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -744,10 +840,13 @@
         <v>8.6</v>
       </c>
       <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -756,10 +855,13 @@
         <v>6.9</v>
       </c>
       <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -768,10 +870,13 @@
         <v>8.5</v>
       </c>
       <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -780,10 +885,13 @@
         <v>12.7</v>
       </c>
       <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -792,10 +900,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -804,10 +915,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -816,10 +930,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -828,10 +945,13 @@
         <v>17.899999999999999</v>
       </c>
       <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -840,10 +960,13 @@
         <v>7.1</v>
       </c>
       <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -852,10 +975,13 @@
         <v>11.6</v>
       </c>
       <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -864,10 +990,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -876,10 +1005,13 @@
         <v>10.1</v>
       </c>
       <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -888,10 +1020,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -900,10 +1035,13 @@
         <v>12.5</v>
       </c>
       <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -912,10 +1050,13 @@
         <v>11</v>
       </c>
       <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -924,10 +1065,13 @@
         <v>8.1</v>
       </c>
       <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -936,10 +1080,13 @@
         <v>8.9</v>
       </c>
       <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -948,10 +1095,13 @@
         <v>12.2</v>
       </c>
       <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -960,10 +1110,13 @@
         <v>11</v>
       </c>
       <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -972,10 +1125,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -984,10 +1140,13 @@
         <v>9.9</v>
       </c>
       <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -996,10 +1155,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1008,10 +1170,13 @@
         <v>8.1</v>
       </c>
       <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1020,10 +1185,13 @@
         <v>8.5</v>
       </c>
       <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1032,10 +1200,13 @@
         <v>11.4</v>
       </c>
       <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1044,10 +1215,13 @@
         <v>19.100000000000001</v>
       </c>
       <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1056,10 +1230,13 @@
         <v>13.2</v>
       </c>
       <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1068,10 +1245,13 @@
         <v>12.2</v>
       </c>
       <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1080,10 +1260,13 @@
         <v>11</v>
       </c>
       <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1092,10 +1275,13 @@
         <v>15.6</v>
       </c>
       <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1104,10 +1290,13 @@
         <v>13.1</v>
       </c>
       <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1116,10 +1305,13 @@
         <v>11.5</v>
       </c>
       <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1128,10 +1320,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1140,10 +1335,13 @@
         <v>7.6</v>
       </c>
       <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1152,22 +1350,28 @@
         <v>13.6</v>
       </c>
       <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B130" si="1">C67/10</f>
+        <f t="shared" ref="B67:B130" si="1">D67/10</f>
         <v>15.7</v>
       </c>
       <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1176,10 +1380,13 @@
         <v>9.5</v>
       </c>
       <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1188,10 +1395,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1200,10 +1410,13 @@
         <v>8.9</v>
       </c>
       <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1212,10 +1425,13 @@
         <v>8.5</v>
       </c>
       <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1224,10 +1440,13 @@
         <v>12.6</v>
       </c>
       <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1236,10 +1455,13 @@
         <v>10.6</v>
       </c>
       <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1248,10 +1470,13 @@
         <v>10.4</v>
       </c>
       <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1260,10 +1485,13 @@
         <v>14.4</v>
       </c>
       <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1272,10 +1500,13 @@
         <v>11.6</v>
       </c>
       <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1284,10 +1515,13 @@
         <v>16.2</v>
       </c>
       <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1296,10 +1530,13 @@
         <v>10</v>
       </c>
       <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1308,10 +1545,13 @@
         <v>11.8</v>
       </c>
       <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1320,10 +1560,13 @@
         <v>9</v>
       </c>
       <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1332,10 +1575,13 @@
         <v>11.6</v>
       </c>
       <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1344,10 +1590,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1356,10 +1605,13 @@
         <v>16.3</v>
       </c>
       <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1368,10 +1620,13 @@
         <v>9.5</v>
       </c>
       <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1380,10 +1635,13 @@
         <v>10.7</v>
       </c>
       <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1392,10 +1650,13 @@
         <v>12.5</v>
       </c>
       <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1404,10 +1665,13 @@
         <v>14.5</v>
       </c>
       <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1416,10 +1680,13 @@
         <v>16.2</v>
       </c>
       <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1428,10 +1695,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1440,10 +1710,13 @@
         <v>22.5</v>
       </c>
       <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1452,10 +1725,13 @@
         <v>25.5</v>
       </c>
       <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1464,10 +1740,13 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1476,10 +1755,13 @@
         <v>16.399999999999999</v>
       </c>
       <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1488,10 +1770,13 @@
         <v>19.100000000000001</v>
       </c>
       <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1500,10 +1785,13 @@
         <v>19</v>
       </c>
       <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1512,10 +1800,13 @@
         <v>16.5</v>
       </c>
       <c r="C96" s="1">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1524,10 +1815,13 @@
         <v>15.5</v>
       </c>
       <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1536,10 +1830,13 @@
         <v>18.600000000000001</v>
       </c>
       <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1548,10 +1845,13 @@
         <v>18.8</v>
       </c>
       <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1560,10 +1860,13 @@
         <v>15.6</v>
       </c>
       <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1572,10 +1875,13 @@
         <v>10.8</v>
       </c>
       <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1584,10 +1890,13 @@
         <v>11.6</v>
       </c>
       <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -1596,10 +1905,13 @@
         <v>17.7</v>
       </c>
       <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -1608,10 +1920,13 @@
         <v>22.9</v>
       </c>
       <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -1620,10 +1935,13 @@
         <v>14.9</v>
       </c>
       <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -1632,10 +1950,13 @@
         <v>12.7</v>
       </c>
       <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -1644,10 +1965,13 @@
         <v>18.5</v>
       </c>
       <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -1656,10 +1980,13 @@
         <v>22.7</v>
       </c>
       <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -1668,10 +1995,13 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -1680,10 +2010,13 @@
         <v>23.9</v>
       </c>
       <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -1692,10 +2025,13 @@
         <v>18.5</v>
       </c>
       <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
         <v>185</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -1704,10 +2040,13 @@
         <v>11.4</v>
       </c>
       <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -1716,10 +2055,13 @@
         <v>13.8</v>
       </c>
       <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -1728,10 +2070,13 @@
         <v>18.600000000000001</v>
       </c>
       <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -1740,10 +2085,13 @@
         <v>23.2</v>
       </c>
       <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -1752,10 +2100,13 @@
         <v>21.3</v>
       </c>
       <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -1764,10 +2115,13 @@
         <v>14.7</v>
       </c>
       <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -1776,10 +2130,13 @@
         <v>12.5</v>
       </c>
       <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -1788,10 +2145,13 @@
         <v>15.9</v>
       </c>
       <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -1800,10 +2160,13 @@
         <v>17</v>
       </c>
       <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -1812,10 +2175,13 @@
         <v>19.7</v>
       </c>
       <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -1824,10 +2190,13 @@
         <v>21.6</v>
       </c>
       <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -1836,10 +2205,13 @@
         <v>10.1</v>
       </c>
       <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -1848,10 +2220,13 @@
         <v>14.8</v>
       </c>
       <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -1860,10 +2235,13 @@
         <v>15.1</v>
       </c>
       <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -1872,10 +2250,13 @@
         <v>14.9</v>
       </c>
       <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -1884,10 +2265,13 @@
         <v>15.9</v>
       </c>
       <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -1896,10 +2280,13 @@
         <v>15.8</v>
       </c>
       <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -1908,10 +2295,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -1920,22 +2310,28 @@
         <v>14.2</v>
       </c>
       <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <f t="shared" ref="B131:B194" si="2">C131/10</f>
+        <f t="shared" ref="B131:B194" si="2">D131/10</f>
         <v>18</v>
       </c>
       <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -1944,10 +2340,13 @@
         <v>15.9</v>
       </c>
       <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -1956,10 +2355,13 @@
         <v>12.6</v>
       </c>
       <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -1968,10 +2370,13 @@
         <v>16.2</v>
       </c>
       <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -1980,10 +2385,13 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -1992,10 +2400,13 @@
         <v>15.6</v>
       </c>
       <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2004,10 +2415,13 @@
         <v>18.899999999999999</v>
       </c>
       <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2016,10 +2430,13 @@
         <v>19.7</v>
       </c>
       <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2028,10 +2445,13 @@
         <v>13.2</v>
       </c>
       <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2040,10 +2460,13 @@
         <v>13.7</v>
       </c>
       <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2052,10 +2475,13 @@
         <v>16</v>
       </c>
       <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2064,10 +2490,13 @@
         <v>19</v>
       </c>
       <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2076,10 +2505,13 @@
         <v>16.5</v>
       </c>
       <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2088,10 +2520,13 @@
         <v>24</v>
       </c>
       <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2100,10 +2535,13 @@
         <v>12.5</v>
       </c>
       <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2112,10 +2550,13 @@
         <v>25.8</v>
       </c>
       <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2124,10 +2565,13 @@
         <v>20.5</v>
       </c>
       <c r="C147" s="1">
+        <v>2</v>
+      </c>
+      <c r="D147" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2136,10 +2580,13 @@
         <v>21.4</v>
       </c>
       <c r="C148" s="1">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2148,10 +2595,13 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2160,10 +2610,13 @@
         <v>15.7</v>
       </c>
       <c r="C150" s="1">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2172,10 +2625,13 @@
         <v>28.4</v>
       </c>
       <c r="C151" s="1">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2184,10 +2640,13 @@
         <v>23.6</v>
       </c>
       <c r="C152" s="1">
+        <v>2</v>
+      </c>
+      <c r="D152" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2196,10 +2655,13 @@
         <v>26.9</v>
       </c>
       <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2208,10 +2670,13 @@
         <v>17.2</v>
       </c>
       <c r="C154" s="1">
+        <v>2</v>
+      </c>
+      <c r="D154" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -2220,10 +2685,13 @@
         <v>23.7</v>
       </c>
       <c r="C155" s="1">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -2232,10 +2700,13 @@
         <v>24.3</v>
       </c>
       <c r="C156" s="1">
+        <v>2</v>
+      </c>
+      <c r="D156" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -2244,10 +2715,13 @@
         <v>21.3</v>
       </c>
       <c r="C157" s="1">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -2256,10 +2730,13 @@
         <v>23.3</v>
       </c>
       <c r="C158" s="1">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -2268,10 +2745,13 @@
         <v>20.5</v>
       </c>
       <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -2280,10 +2760,13 @@
         <v>24.4</v>
       </c>
       <c r="C160" s="1">
+        <v>2</v>
+      </c>
+      <c r="D160" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -2292,10 +2775,13 @@
         <v>23</v>
       </c>
       <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -2304,10 +2790,13 @@
         <v>22.9</v>
       </c>
       <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -2316,10 +2805,13 @@
         <v>23.8</v>
       </c>
       <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -2328,10 +2820,13 @@
         <v>24</v>
       </c>
       <c r="C164" s="1">
+        <v>2</v>
+      </c>
+      <c r="D164" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -2340,10 +2835,13 @@
         <v>31</v>
       </c>
       <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -2352,10 +2850,13 @@
         <v>28.4</v>
       </c>
       <c r="C166" s="1">
+        <v>2</v>
+      </c>
+      <c r="D166" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -2364,10 +2865,13 @@
         <v>27.3</v>
       </c>
       <c r="C167" s="1">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -2376,10 +2880,13 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C168" s="1">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -2388,10 +2895,13 @@
         <v>21.7</v>
       </c>
       <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -2400,10 +2910,13 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -2412,10 +2925,13 @@
         <v>31.4</v>
       </c>
       <c r="C171" s="1">
+        <v>2</v>
+      </c>
+      <c r="D171" s="1">
         <v>314</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -2424,10 +2940,13 @@
         <v>22.1</v>
       </c>
       <c r="C172" s="1">
+        <v>2</v>
+      </c>
+      <c r="D172" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -2436,10 +2955,13 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C173" s="1">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -2448,10 +2970,13 @@
         <v>19.3</v>
       </c>
       <c r="C174" s="1">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -2460,10 +2985,13 @@
         <v>23.9</v>
       </c>
       <c r="C175" s="1">
+        <v>2</v>
+      </c>
+      <c r="D175" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -2472,10 +3000,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C176" s="1">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -2484,10 +3015,13 @@
         <v>16.2</v>
       </c>
       <c r="C177" s="1">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -2496,10 +3030,13 @@
         <v>17.3</v>
       </c>
       <c r="C178" s="1">
+        <v>2</v>
+      </c>
+      <c r="D178" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -2508,10 +3045,13 @@
         <v>21.6</v>
       </c>
       <c r="C179" s="1">
+        <v>2</v>
+      </c>
+      <c r="D179" s="1">
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -2520,10 +3060,13 @@
         <v>21.1</v>
       </c>
       <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -2532,10 +3075,13 @@
         <v>25.4</v>
       </c>
       <c r="C181" s="1">
+        <v>2</v>
+      </c>
+      <c r="D181" s="1">
         <v>254</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -2544,10 +3090,13 @@
         <v>19.7</v>
       </c>
       <c r="C182" s="1">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -2556,10 +3105,13 @@
         <v>27.9</v>
       </c>
       <c r="C183" s="1">
+        <v>2</v>
+      </c>
+      <c r="D183" s="1">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -2568,10 +3120,13 @@
         <v>22.5</v>
       </c>
       <c r="C184" s="1">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -2580,10 +3135,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C185" s="1">
+        <v>2</v>
+      </c>
+      <c r="D185" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -2592,10 +3150,13 @@
         <v>23.7</v>
       </c>
       <c r="C186" s="1">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -2604,10 +3165,13 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C187" s="1">
+        <v>2</v>
+      </c>
+      <c r="D187" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -2616,10 +3180,13 @@
         <v>22.8</v>
       </c>
       <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -2628,10 +3195,13 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C189" s="1">
+        <v>2</v>
+      </c>
+      <c r="D189" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -2640,10 +3210,13 @@
         <v>25.3</v>
       </c>
       <c r="C190" s="1">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -2652,10 +3225,13 @@
         <v>27.1</v>
       </c>
       <c r="C191" s="1">
+        <v>2</v>
+      </c>
+      <c r="D191" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -2664,10 +3240,13 @@
         <v>21</v>
       </c>
       <c r="C192" s="1">
+        <v>2</v>
+      </c>
+      <c r="D192" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -2676,10 +3255,13 @@
         <v>23.2</v>
       </c>
       <c r="C193" s="1">
+        <v>2</v>
+      </c>
+      <c r="D193" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -2688,22 +3270,28 @@
         <v>19.5</v>
       </c>
       <c r="C194" s="1">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <f t="shared" ref="B195:B258" si="3">C195/10</f>
+        <f t="shared" ref="B195:B258" si="3">D195/10</f>
         <v>32.200000000000003</v>
       </c>
       <c r="C195" s="1">
+        <v>2</v>
+      </c>
+      <c r="D195" s="1">
         <v>322</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -2712,10 +3300,13 @@
         <v>20.9</v>
       </c>
       <c r="C196" s="1">
+        <v>2</v>
+      </c>
+      <c r="D196" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -2724,10 +3315,13 @@
         <v>24.6</v>
       </c>
       <c r="C197" s="1">
+        <v>2</v>
+      </c>
+      <c r="D197" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -2736,10 +3330,13 @@
         <v>25.6</v>
       </c>
       <c r="C198" s="1">
+        <v>2</v>
+      </c>
+      <c r="D198" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -2748,10 +3345,13 @@
         <v>24.9</v>
       </c>
       <c r="C199" s="1">
+        <v>2</v>
+      </c>
+      <c r="D199" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -2760,10 +3360,13 @@
         <v>18</v>
       </c>
       <c r="C200" s="1">
+        <v>2</v>
+      </c>
+      <c r="D200" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -2772,10 +3375,13 @@
         <v>23.1</v>
       </c>
       <c r="C201" s="1">
+        <v>2</v>
+      </c>
+      <c r="D201" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -2784,10 +3390,13 @@
         <v>22.9</v>
       </c>
       <c r="C202" s="1">
+        <v>2</v>
+      </c>
+      <c r="D202" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -2796,10 +3405,13 @@
         <v>18.8</v>
       </c>
       <c r="C203" s="1">
+        <v>2</v>
+      </c>
+      <c r="D203" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -2808,10 +3420,13 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C204" s="1">
+        <v>2</v>
+      </c>
+      <c r="D204" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -2820,10 +3435,13 @@
         <v>20</v>
       </c>
       <c r="C205" s="1">
+        <v>2</v>
+      </c>
+      <c r="D205" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -2832,10 +3450,13 @@
         <v>24.2</v>
       </c>
       <c r="C206" s="1">
+        <v>2</v>
+      </c>
+      <c r="D206" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -2844,10 +3465,13 @@
         <v>22.1</v>
       </c>
       <c r="C207" s="1">
+        <v>2</v>
+      </c>
+      <c r="D207" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -2856,10 +3480,13 @@
         <v>27.4</v>
       </c>
       <c r="C208" s="1">
+        <v>2</v>
+      </c>
+      <c r="D208" s="1">
         <v>274</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -2868,10 +3495,13 @@
         <v>30.7</v>
       </c>
       <c r="C209" s="1">
+        <v>2</v>
+      </c>
+      <c r="D209" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -2880,10 +3510,13 @@
         <v>27.2</v>
       </c>
       <c r="C210" s="1">
+        <v>2</v>
+      </c>
+      <c r="D210" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -2892,10 +3525,13 @@
         <v>19.100000000000001</v>
       </c>
       <c r="C211" s="1">
+        <v>2</v>
+      </c>
+      <c r="D211" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -2904,10 +3540,13 @@
         <v>30.6</v>
       </c>
       <c r="C212" s="1">
+        <v>2</v>
+      </c>
+      <c r="D212" s="1">
         <v>306</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -2916,10 +3555,13 @@
         <v>28.1</v>
       </c>
       <c r="C213" s="1">
+        <v>2</v>
+      </c>
+      <c r="D213" s="1">
         <v>281</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -2928,10 +3570,13 @@
         <v>24.8</v>
       </c>
       <c r="C214" s="1">
+        <v>2</v>
+      </c>
+      <c r="D214" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -2940,10 +3585,13 @@
         <v>29.4</v>
       </c>
       <c r="C215" s="1">
+        <v>2</v>
+      </c>
+      <c r="D215" s="1">
         <v>294</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -2952,10 +3600,13 @@
         <v>18.7</v>
       </c>
       <c r="C216" s="1">
+        <v>2</v>
+      </c>
+      <c r="D216" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -2964,10 +3615,13 @@
         <v>19.600000000000001</v>
       </c>
       <c r="C217" s="1">
+        <v>2</v>
+      </c>
+      <c r="D217" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -2976,10 +3630,13 @@
         <v>27.8</v>
       </c>
       <c r="C218" s="1">
+        <v>2</v>
+      </c>
+      <c r="D218" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -2988,10 +3645,13 @@
         <v>24.1</v>
       </c>
       <c r="C219" s="1">
+        <v>2</v>
+      </c>
+      <c r="D219" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -3000,10 +3660,13 @@
         <v>27.2</v>
       </c>
       <c r="C220" s="1">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -3012,10 +3675,13 @@
         <v>28.7</v>
       </c>
       <c r="C221" s="1">
+        <v>2</v>
+      </c>
+      <c r="D221" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -3024,10 +3690,13 @@
         <v>26.3</v>
       </c>
       <c r="C222" s="1">
+        <v>2</v>
+      </c>
+      <c r="D222" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -3036,10 +3705,13 @@
         <v>22.9</v>
       </c>
       <c r="C223" s="1">
+        <v>2</v>
+      </c>
+      <c r="D223" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -3048,10 +3720,13 @@
         <v>30.5</v>
       </c>
       <c r="C224" s="1">
+        <v>2</v>
+      </c>
+      <c r="D224" s="1">
         <v>305</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -3060,10 +3735,13 @@
         <v>24.1</v>
       </c>
       <c r="C225" s="1">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -3072,10 +3750,13 @@
         <v>24.4</v>
       </c>
       <c r="C226" s="1">
+        <v>2</v>
+      </c>
+      <c r="D226" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -3084,10 +3765,13 @@
         <v>26.7</v>
       </c>
       <c r="C227" s="1">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -3096,10 +3780,13 @@
         <v>22.3</v>
       </c>
       <c r="C228" s="1">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -3108,10 +3795,13 @@
         <v>28.4</v>
       </c>
       <c r="C229" s="1">
+        <v>2</v>
+      </c>
+      <c r="D229" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -3120,10 +3810,13 @@
         <v>21.3</v>
       </c>
       <c r="C230" s="1">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -3132,10 +3825,13 @@
         <v>23.9</v>
       </c>
       <c r="C231" s="1">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -3144,10 +3840,13 @@
         <v>23.5</v>
       </c>
       <c r="C232" s="1">
+        <v>2</v>
+      </c>
+      <c r="D232" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -3156,10 +3855,13 @@
         <v>20.3</v>
       </c>
       <c r="C233" s="1">
+        <v>2</v>
+      </c>
+      <c r="D233" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -3168,10 +3870,13 @@
         <v>24.6</v>
       </c>
       <c r="C234" s="1">
+        <v>2</v>
+      </c>
+      <c r="D234" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -3180,10 +3885,13 @@
         <v>30.7</v>
       </c>
       <c r="C235" s="1">
+        <v>2</v>
+      </c>
+      <c r="D235" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -3192,10 +3900,13 @@
         <v>26.4</v>
       </c>
       <c r="C236" s="1">
+        <v>2</v>
+      </c>
+      <c r="D236" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -3204,10 +3915,13 @@
         <v>23.6</v>
       </c>
       <c r="C237" s="1">
+        <v>2</v>
+      </c>
+      <c r="D237" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -3216,10 +3930,13 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C238" s="1">
+        <v>2</v>
+      </c>
+      <c r="D238" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -3228,10 +3945,13 @@
         <v>22.7</v>
       </c>
       <c r="C239" s="1">
+        <v>2</v>
+      </c>
+      <c r="D239" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -3240,10 +3960,13 @@
         <v>21.9</v>
       </c>
       <c r="C240" s="1">
+        <v>2</v>
+      </c>
+      <c r="D240" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -3252,10 +3975,13 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C241" s="1">
+        <v>2</v>
+      </c>
+      <c r="D241" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -3264,10 +3990,13 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C242" s="1">
+        <v>2</v>
+      </c>
+      <c r="D242" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -3276,10 +4005,13 @@
         <v>25.6</v>
       </c>
       <c r="C243" s="1">
+        <v>2</v>
+      </c>
+      <c r="D243" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -3288,10 +4020,13 @@
         <v>27.3</v>
       </c>
       <c r="C244" s="1">
+        <v>2</v>
+      </c>
+      <c r="D244" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -3300,10 +4035,13 @@
         <v>24.6</v>
       </c>
       <c r="C245" s="1">
+        <v>2</v>
+      </c>
+      <c r="D245" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -3312,10 +4050,13 @@
         <v>27.9</v>
       </c>
       <c r="C246" s="1">
+        <v>2</v>
+      </c>
+      <c r="D246" s="1">
         <v>279</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -3324,10 +4065,13 @@
         <v>25.9</v>
       </c>
       <c r="C247" s="1">
+        <v>2</v>
+      </c>
+      <c r="D247" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -3336,10 +4080,13 @@
         <v>19.2</v>
       </c>
       <c r="C248" s="1">
+        <v>2</v>
+      </c>
+      <c r="D248" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -3348,10 +4095,13 @@
         <v>22.1</v>
       </c>
       <c r="C249" s="1">
+        <v>2</v>
+      </c>
+      <c r="D249" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -3360,10 +4110,13 @@
         <v>29.4</v>
       </c>
       <c r="C250" s="1">
+        <v>2</v>
+      </c>
+      <c r="D250" s="1">
         <v>294</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -3372,10 +4125,13 @@
         <v>28.2</v>
       </c>
       <c r="C251" s="1">
+        <v>2</v>
+      </c>
+      <c r="D251" s="1">
         <v>282</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -3384,10 +4140,13 @@
         <v>29.1</v>
       </c>
       <c r="C252" s="1">
+        <v>2</v>
+      </c>
+      <c r="D252" s="1">
         <v>291</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -3396,10 +4155,13 @@
         <v>23.2</v>
       </c>
       <c r="C253" s="1">
+        <v>2</v>
+      </c>
+      <c r="D253" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -3408,10 +4170,13 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C254" s="1">
+        <v>2</v>
+      </c>
+      <c r="D254" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -3420,10 +4185,13 @@
         <v>25.9</v>
       </c>
       <c r="C255" s="1">
+        <v>2</v>
+      </c>
+      <c r="D255" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -3432,10 +4200,13 @@
         <v>25.6</v>
       </c>
       <c r="C256" s="1">
+        <v>2</v>
+      </c>
+      <c r="D256" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -3444,10 +4215,13 @@
         <v>25.3</v>
       </c>
       <c r="C257" s="1">
+        <v>2</v>
+      </c>
+      <c r="D257" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -3456,22 +4230,28 @@
         <v>22.8</v>
       </c>
       <c r="C258" s="1">
+        <v>2</v>
+      </c>
+      <c r="D258" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <f t="shared" ref="B259:B322" si="4">C259/10</f>
+        <f t="shared" ref="B259:B322" si="4">D259/10</f>
         <v>25.9</v>
       </c>
       <c r="C259" s="1">
+        <v>2</v>
+      </c>
+      <c r="D259" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -3480,10 +4260,13 @@
         <v>26.3</v>
       </c>
       <c r="C260" s="1">
+        <v>2</v>
+      </c>
+      <c r="D260" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -3492,10 +4275,13 @@
         <v>29.2</v>
       </c>
       <c r="C261" s="1">
+        <v>2</v>
+      </c>
+      <c r="D261" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -3504,10 +4290,13 @@
         <v>23.9</v>
       </c>
       <c r="C262" s="1">
+        <v>2</v>
+      </c>
+      <c r="D262" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -3516,10 +4305,13 @@
         <v>22.3</v>
       </c>
       <c r="C263" s="1">
+        <v>2</v>
+      </c>
+      <c r="D263" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -3528,10 +4320,13 @@
         <v>33.5</v>
       </c>
       <c r="C264" s="1">
+        <v>2</v>
+      </c>
+      <c r="D264" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -3540,10 +4335,13 @@
         <v>35.9</v>
       </c>
       <c r="C265" s="1">
+        <v>2</v>
+      </c>
+      <c r="D265" s="1">
         <v>359</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -3552,10 +4350,13 @@
         <v>25.9</v>
       </c>
       <c r="C266" s="1">
+        <v>2</v>
+      </c>
+      <c r="D266" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -3564,10 +4365,13 @@
         <v>31.9</v>
       </c>
       <c r="C267" s="1">
+        <v>2</v>
+      </c>
+      <c r="D267" s="1">
         <v>319</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -3576,10 +4380,13 @@
         <v>24.4</v>
       </c>
       <c r="C268" s="1">
+        <v>2</v>
+      </c>
+      <c r="D268" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -3588,10 +4395,13 @@
         <v>30.7</v>
       </c>
       <c r="C269" s="1">
+        <v>2</v>
+      </c>
+      <c r="D269" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -3600,10 +4410,13 @@
         <v>35.1</v>
       </c>
       <c r="C270" s="1">
+        <v>2</v>
+      </c>
+      <c r="D270" s="1">
         <v>351</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -3612,10 +4425,13 @@
         <v>29.5</v>
       </c>
       <c r="C271" s="1">
+        <v>2</v>
+      </c>
+      <c r="D271" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -3624,10 +4440,13 @@
         <v>28</v>
       </c>
       <c r="C272" s="1">
+        <v>2</v>
+      </c>
+      <c r="D272" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -3636,10 +4455,13 @@
         <v>25.6</v>
       </c>
       <c r="C273" s="1">
+        <v>2</v>
+      </c>
+      <c r="D273" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -3648,10 +4470,13 @@
         <v>29.2</v>
       </c>
       <c r="C274" s="1">
+        <v>2</v>
+      </c>
+      <c r="D274" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -3660,10 +4485,13 @@
         <v>38.6</v>
       </c>
       <c r="C275" s="1">
+        <v>2</v>
+      </c>
+      <c r="D275" s="1">
         <v>386</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -3672,10 +4500,13 @@
         <v>28.9</v>
       </c>
       <c r="C276" s="1">
+        <v>2</v>
+      </c>
+      <c r="D276" s="1">
         <v>289</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -3684,10 +4515,13 @@
         <v>32.700000000000003</v>
       </c>
       <c r="C277" s="1">
+        <v>2</v>
+      </c>
+      <c r="D277" s="1">
         <v>327</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -3696,10 +4530,13 @@
         <v>28.3</v>
       </c>
       <c r="C278" s="1">
+        <v>2</v>
+      </c>
+      <c r="D278" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -3708,10 +4545,13 @@
         <v>21.9</v>
       </c>
       <c r="C279" s="1">
+        <v>2</v>
+      </c>
+      <c r="D279" s="1">
         <v>219</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -3720,10 +4560,13 @@
         <v>23.2</v>
       </c>
       <c r="C280" s="1">
+        <v>2</v>
+      </c>
+      <c r="D280" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -3732,10 +4575,13 @@
         <v>34.9</v>
       </c>
       <c r="C281" s="1">
+        <v>2</v>
+      </c>
+      <c r="D281" s="1">
         <v>349</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -3744,10 +4590,13 @@
         <v>32.6</v>
       </c>
       <c r="C282" s="1">
+        <v>2</v>
+      </c>
+      <c r="D282" s="1">
         <v>326</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -3756,10 +4605,13 @@
         <v>26.2</v>
       </c>
       <c r="C283" s="1">
+        <v>2</v>
+      </c>
+      <c r="D283" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -3768,10 +4620,13 @@
         <v>22.9</v>
       </c>
       <c r="C284" s="1">
+        <v>2</v>
+      </c>
+      <c r="D284" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -3780,10 +4635,13 @@
         <v>25.3</v>
       </c>
       <c r="C285" s="1">
+        <v>2</v>
+      </c>
+      <c r="D285" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -3792,10 +4650,13 @@
         <v>33.1</v>
       </c>
       <c r="C286" s="1">
+        <v>2</v>
+      </c>
+      <c r="D286" s="1">
         <v>331</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -3804,10 +4665,13 @@
         <v>32.4</v>
       </c>
       <c r="C287" s="1">
+        <v>2</v>
+      </c>
+      <c r="D287" s="1">
         <v>324</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -3816,10 +4680,13 @@
         <v>27.3</v>
       </c>
       <c r="C288" s="1">
+        <v>2</v>
+      </c>
+      <c r="D288" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -3828,10 +4695,13 @@
         <v>36.5</v>
       </c>
       <c r="C289" s="1">
+        <v>2</v>
+      </c>
+      <c r="D289" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -3840,10 +4710,13 @@
         <v>26.8</v>
       </c>
       <c r="C290" s="1">
+        <v>2</v>
+      </c>
+      <c r="D290" s="1">
         <v>268</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -3852,10 +4725,13 @@
         <v>23.2</v>
       </c>
       <c r="C291" s="1">
+        <v>2</v>
+      </c>
+      <c r="D291" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -3864,10 +4740,13 @@
         <v>26.6</v>
       </c>
       <c r="C292" s="1">
+        <v>2</v>
+      </c>
+      <c r="D292" s="1">
         <v>266</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -3876,10 +4755,13 @@
         <v>24.9</v>
       </c>
       <c r="C293" s="1">
+        <v>2</v>
+      </c>
+      <c r="D293" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -3888,10 +4770,13 @@
         <v>31.7</v>
       </c>
       <c r="C294" s="1">
+        <v>2</v>
+      </c>
+      <c r="D294" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -3900,10 +4785,13 @@
         <v>29.8</v>
       </c>
       <c r="C295" s="1">
+        <v>2</v>
+      </c>
+      <c r="D295" s="1">
         <v>298</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -3912,10 +4800,13 @@
         <v>29.2</v>
       </c>
       <c r="C296" s="1">
+        <v>2</v>
+      </c>
+      <c r="D296" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -3924,10 +4815,13 @@
         <v>24.6</v>
       </c>
       <c r="C297" s="1">
+        <v>2</v>
+      </c>
+      <c r="D297" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -3936,10 +4830,13 @@
         <v>35.799999999999997</v>
       </c>
       <c r="C298" s="1">
+        <v>2</v>
+      </c>
+      <c r="D298" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -3948,10 +4845,13 @@
         <v>22.6</v>
       </c>
       <c r="C299" s="1">
+        <v>2</v>
+      </c>
+      <c r="D299" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -3960,10 +4860,13 @@
         <v>30.5</v>
       </c>
       <c r="C300" s="1">
+        <v>2</v>
+      </c>
+      <c r="D300" s="1">
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -3972,10 +4875,13 @@
         <v>33.799999999999997</v>
       </c>
       <c r="C301" s="1">
+        <v>2</v>
+      </c>
+      <c r="D301" s="1">
         <v>338</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -3984,10 +4890,13 @@
         <v>30.1</v>
       </c>
       <c r="C302" s="1">
+        <v>2</v>
+      </c>
+      <c r="D302" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -3996,10 +4905,13 @@
         <v>26.8</v>
       </c>
       <c r="C303" s="1">
+        <v>2</v>
+      </c>
+      <c r="D303" s="1">
         <v>268</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -4008,10 +4920,13 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C304" s="1">
+        <v>2</v>
+      </c>
+      <c r="D304" s="1">
         <v>323</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -4020,10 +4935,13 @@
         <v>27.6</v>
       </c>
       <c r="C305" s="1">
+        <v>2</v>
+      </c>
+      <c r="D305" s="1">
         <v>276</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -4032,10 +4950,13 @@
         <v>28.9</v>
       </c>
       <c r="C306" s="1">
+        <v>2</v>
+      </c>
+      <c r="D306" s="1">
         <v>289</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -4044,10 +4965,13 @@
         <v>34.700000000000003</v>
       </c>
       <c r="C307" s="1">
+        <v>2</v>
+      </c>
+      <c r="D307" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -4056,10 +4980,13 @@
         <v>23.1</v>
       </c>
       <c r="C308" s="1">
+        <v>2</v>
+      </c>
+      <c r="D308" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -4068,10 +4995,13 @@
         <v>27.8</v>
       </c>
       <c r="C309" s="1">
+        <v>2</v>
+      </c>
+      <c r="D309" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -4080,10 +5010,13 @@
         <v>20.5</v>
       </c>
       <c r="C310" s="1">
+        <v>3</v>
+      </c>
+      <c r="D310" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -4092,10 +5025,13 @@
         <v>28.4</v>
       </c>
       <c r="C311" s="1">
+        <v>3</v>
+      </c>
+      <c r="D311" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -4104,10 +5040,13 @@
         <v>21.3</v>
       </c>
       <c r="C312" s="1">
+        <v>3</v>
+      </c>
+      <c r="D312" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -4116,10 +5055,13 @@
         <v>24.3</v>
       </c>
       <c r="C313" s="1">
+        <v>3</v>
+      </c>
+      <c r="D313" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -4128,10 +5070,13 @@
         <v>21.4</v>
       </c>
       <c r="C314" s="1">
+        <v>3</v>
+      </c>
+      <c r="D314" s="1">
         <v>214</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -4140,10 +5085,13 @@
         <v>33.9</v>
       </c>
       <c r="C315" s="1">
+        <v>3</v>
+      </c>
+      <c r="D315" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -4152,10 +5100,13 @@
         <v>29.6</v>
       </c>
       <c r="C316" s="1">
+        <v>3</v>
+      </c>
+      <c r="D316" s="1">
         <v>296</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -4164,10 +5115,13 @@
         <v>40.200000000000003</v>
       </c>
       <c r="C317" s="1">
+        <v>3</v>
+      </c>
+      <c r="D317" s="1">
         <v>402</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -4176,10 +5130,13 @@
         <v>24.1</v>
       </c>
       <c r="C318" s="1">
+        <v>3</v>
+      </c>
+      <c r="D318" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -4188,10 +5145,13 @@
         <v>36</v>
       </c>
       <c r="C319" s="1">
+        <v>3</v>
+      </c>
+      <c r="D319" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -4200,10 +5160,13 @@
         <v>39.9</v>
       </c>
       <c r="C320" s="1">
+        <v>3</v>
+      </c>
+      <c r="D320" s="1">
         <v>399</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -4212,10 +5175,13 @@
         <v>27.8</v>
       </c>
       <c r="C321" s="1">
+        <v>3</v>
+      </c>
+      <c r="D321" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -4224,22 +5190,28 @@
         <v>34.6</v>
       </c>
       <c r="C322" s="1">
+        <v>3</v>
+      </c>
+      <c r="D322" s="1">
         <v>346</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <f t="shared" ref="B323:B386" si="5">C323/10</f>
+        <f t="shared" ref="B323:B386" si="5">D323/10</f>
         <v>24.7</v>
       </c>
       <c r="C323" s="1">
+        <v>3</v>
+      </c>
+      <c r="D323" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -4248,10 +5220,13 @@
         <v>27.9</v>
       </c>
       <c r="C324" s="1">
+        <v>3</v>
+      </c>
+      <c r="D324" s="1">
         <v>279</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -4260,10 +5235,13 @@
         <v>25.3</v>
       </c>
       <c r="C325" s="1">
+        <v>3</v>
+      </c>
+      <c r="D325" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -4272,10 +5250,13 @@
         <v>36.6</v>
       </c>
       <c r="C326" s="1">
+        <v>3</v>
+      </c>
+      <c r="D326" s="1">
         <v>366</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -4284,10 +5265,13 @@
         <v>24.8</v>
       </c>
       <c r="C327" s="1">
+        <v>3</v>
+      </c>
+      <c r="D327" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -4296,10 +5280,13 @@
         <v>33.5</v>
       </c>
       <c r="C328" s="1">
+        <v>3</v>
+      </c>
+      <c r="D328" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -4308,10 +5295,13 @@
         <v>28.3</v>
       </c>
       <c r="C329" s="1">
+        <v>3</v>
+      </c>
+      <c r="D329" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -4320,10 +5310,13 @@
         <v>24.9</v>
       </c>
       <c r="C330" s="1">
+        <v>3</v>
+      </c>
+      <c r="D330" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -4332,10 +5325,13 @@
         <v>22.9</v>
       </c>
       <c r="C331" s="1">
+        <v>3</v>
+      </c>
+      <c r="D331" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -4344,10 +5340,13 @@
         <v>22.6</v>
       </c>
       <c r="C332" s="1">
+        <v>3</v>
+      </c>
+      <c r="D332" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -4356,10 +5355,13 @@
         <v>25.5</v>
       </c>
       <c r="C333" s="1">
+        <v>3</v>
+      </c>
+      <c r="D333" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -4368,10 +5370,13 @@
         <v>22.9</v>
       </c>
       <c r="C334" s="1">
+        <v>3</v>
+      </c>
+      <c r="D334" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -4380,10 +5385,13 @@
         <v>24.7</v>
       </c>
       <c r="C335" s="1">
+        <v>3</v>
+      </c>
+      <c r="D335" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -4392,10 +5400,13 @@
         <v>26.9</v>
       </c>
       <c r="C336" s="1">
+        <v>3</v>
+      </c>
+      <c r="D336" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -4404,10 +5415,13 @@
         <v>24.2</v>
       </c>
       <c r="C337" s="1">
+        <v>3</v>
+      </c>
+      <c r="D337" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -4416,10 +5430,13 @@
         <v>26.7</v>
       </c>
       <c r="C338" s="1">
+        <v>3</v>
+      </c>
+      <c r="D338" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -4428,10 +5445,13 @@
         <v>20.7</v>
       </c>
       <c r="C339" s="1">
+        <v>3</v>
+      </c>
+      <c r="D339" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -4440,10 +5460,13 @@
         <v>23.3</v>
       </c>
       <c r="C340" s="1">
+        <v>3</v>
+      </c>
+      <c r="D340" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -4452,10 +5475,13 @@
         <v>31.7</v>
       </c>
       <c r="C341" s="1">
+        <v>3</v>
+      </c>
+      <c r="D341" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -4464,10 +5490,13 @@
         <v>33.6</v>
       </c>
       <c r="C342" s="1">
+        <v>3</v>
+      </c>
+      <c r="D342" s="1">
         <v>336</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -4476,10 +5505,13 @@
         <v>22.5</v>
       </c>
       <c r="C343" s="1">
+        <v>3</v>
+      </c>
+      <c r="D343" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -4488,10 +5520,13 @@
         <v>28.7</v>
       </c>
       <c r="C344" s="1">
+        <v>3</v>
+      </c>
+      <c r="D344" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -4500,10 +5535,13 @@
         <v>20.7</v>
       </c>
       <c r="C345" s="1">
+        <v>3</v>
+      </c>
+      <c r="D345" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -4512,10 +5550,13 @@
         <v>22.9</v>
       </c>
       <c r="C346" s="1">
+        <v>3</v>
+      </c>
+      <c r="D346" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -4524,10 +5565,13 @@
         <v>30.5</v>
       </c>
       <c r="C347" s="1">
+        <v>3</v>
+      </c>
+      <c r="D347" s="1">
         <v>305</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -4536,10 +5580,13 @@
         <v>25.5</v>
       </c>
       <c r="C348" s="1">
+        <v>3</v>
+      </c>
+      <c r="D348" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -4548,10 +5595,13 @@
         <v>25.7</v>
       </c>
       <c r="C349" s="1">
+        <v>3</v>
+      </c>
+      <c r="D349" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -4560,10 +5610,13 @@
         <v>21</v>
       </c>
       <c r="C350" s="1">
+        <v>3</v>
+      </c>
+      <c r="D350" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -4572,10 +5625,13 @@
         <v>26.5</v>
       </c>
       <c r="C351" s="1">
+        <v>3</v>
+      </c>
+      <c r="D351" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -4584,10 +5640,13 @@
         <v>27</v>
       </c>
       <c r="C352" s="1">
+        <v>3</v>
+      </c>
+      <c r="D352" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -4596,10 +5655,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C353" s="1">
+        <v>3</v>
+      </c>
+      <c r="D353" s="1">
         <v>337</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -4608,10 +5670,13 @@
         <v>30.7</v>
       </c>
       <c r="C354" s="1">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -4620,10 +5685,13 @@
         <v>31.8</v>
       </c>
       <c r="C355" s="1">
+        <v>3</v>
+      </c>
+      <c r="D355" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -4632,10 +5700,13 @@
         <v>22.8</v>
       </c>
       <c r="C356" s="1">
+        <v>3</v>
+      </c>
+      <c r="D356" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -4644,10 +5715,13 @@
         <v>31.4</v>
       </c>
       <c r="C357" s="1">
+        <v>3</v>
+      </c>
+      <c r="D357" s="1">
         <v>314</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -4656,10 +5730,13 @@
         <v>32.1</v>
       </c>
       <c r="C358" s="1">
+        <v>3</v>
+      </c>
+      <c r="D358" s="1">
         <v>321</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -4668,10 +5745,13 @@
         <v>22.4</v>
       </c>
       <c r="C359" s="1">
+        <v>3</v>
+      </c>
+      <c r="D359" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -4680,10 +5760,13 @@
         <v>29.7</v>
       </c>
       <c r="C360" s="1">
+        <v>3</v>
+      </c>
+      <c r="D360" s="1">
         <v>297</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -4692,10 +5775,13 @@
         <v>23.8</v>
       </c>
       <c r="C361" s="1">
+        <v>3</v>
+      </c>
+      <c r="D361" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -4704,10 +5790,13 @@
         <v>26.7</v>
       </c>
       <c r="C362" s="1">
+        <v>3</v>
+      </c>
+      <c r="D362" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -4716,10 +5805,13 @@
         <v>23.9</v>
       </c>
       <c r="C363" s="1">
+        <v>3</v>
+      </c>
+      <c r="D363" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -4728,10 +5820,13 @@
         <v>29.8</v>
       </c>
       <c r="C364" s="1">
+        <v>3</v>
+      </c>
+      <c r="D364" s="1">
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -4740,10 +5835,13 @@
         <v>24.8</v>
       </c>
       <c r="C365" s="1">
+        <v>3</v>
+      </c>
+      <c r="D365" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -4752,10 +5850,13 @@
         <v>30.9</v>
       </c>
       <c r="C366" s="1">
+        <v>3</v>
+      </c>
+      <c r="D366" s="1">
         <v>309</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -4764,10 +5865,13 @@
         <v>27.9</v>
       </c>
       <c r="C367" s="1">
+        <v>3</v>
+      </c>
+      <c r="D367" s="1">
         <v>279</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -4776,10 +5880,13 @@
         <v>26.9</v>
       </c>
       <c r="C368" s="1">
+        <v>3</v>
+      </c>
+      <c r="D368" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -4788,10 +5895,13 @@
         <v>25.3</v>
       </c>
       <c r="C369" s="1">
+        <v>3</v>
+      </c>
+      <c r="D369" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -4800,10 +5910,13 @@
         <v>26.1</v>
       </c>
       <c r="C370" s="1">
+        <v>3</v>
+      </c>
+      <c r="D370" s="1">
         <v>261</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -4812,10 +5925,13 @@
         <v>31.8</v>
       </c>
       <c r="C371" s="1">
+        <v>3</v>
+      </c>
+      <c r="D371" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -4824,10 +5940,13 @@
         <v>27.1</v>
       </c>
       <c r="C372" s="1">
+        <v>3</v>
+      </c>
+      <c r="D372" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -4836,10 +5955,13 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C373" s="1">
+        <v>3</v>
+      </c>
+      <c r="D373" s="1">
         <v>322</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -4848,10 +5970,13 @@
         <v>21.8</v>
       </c>
       <c r="C374" s="1">
+        <v>3</v>
+      </c>
+      <c r="D374" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -4860,10 +5985,13 @@
         <v>23.4</v>
       </c>
       <c r="C375" s="1">
+        <v>3</v>
+      </c>
+      <c r="D375" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -4872,10 +6000,13 @@
         <v>28</v>
       </c>
       <c r="C376" s="1">
+        <v>3</v>
+      </c>
+      <c r="D376" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -4884,10 +6015,13 @@
         <v>31.8</v>
       </c>
       <c r="C377" s="1">
+        <v>3</v>
+      </c>
+      <c r="D377" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -4896,10 +6030,13 @@
         <v>30.6</v>
       </c>
       <c r="C378" s="1">
+        <v>3</v>
+      </c>
+      <c r="D378" s="1">
         <v>306</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -4908,10 +6045,13 @@
         <v>32.700000000000003</v>
       </c>
       <c r="C379" s="1">
+        <v>3</v>
+      </c>
+      <c r="D379" s="1">
         <v>327</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -4920,10 +6060,13 @@
         <v>32</v>
       </c>
       <c r="C380" s="1">
+        <v>3</v>
+      </c>
+      <c r="D380" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -4932,10 +6075,13 @@
         <v>25.5</v>
       </c>
       <c r="C381" s="1">
+        <v>3</v>
+      </c>
+      <c r="D381" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -4944,10 +6090,13 @@
         <v>25.8</v>
       </c>
       <c r="C382" s="1">
+        <v>3</v>
+      </c>
+      <c r="D382" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -4956,10 +6105,13 @@
         <v>24.2</v>
       </c>
       <c r="C383" s="1">
+        <v>3</v>
+      </c>
+      <c r="D383" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -4968,10 +6120,13 @@
         <v>22.8</v>
       </c>
       <c r="C384" s="1">
+        <v>3</v>
+      </c>
+      <c r="D384" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -4980,10 +6135,13 @@
         <v>26.6</v>
       </c>
       <c r="C385" s="1">
+        <v>3</v>
+      </c>
+      <c r="D385" s="1">
         <v>266</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -4992,22 +6150,28 @@
         <v>29.2</v>
       </c>
       <c r="C386" s="1">
+        <v>3</v>
+      </c>
+      <c r="D386" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <f t="shared" ref="B387:B450" si="6">C387/10</f>
+        <f t="shared" ref="B387:B450" si="6">D387/10</f>
         <v>30.9</v>
       </c>
       <c r="C387" s="1">
+        <v>3</v>
+      </c>
+      <c r="D387" s="1">
         <v>309</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -5016,10 +6180,13 @@
         <v>26.3</v>
       </c>
       <c r="C388" s="1">
+        <v>3</v>
+      </c>
+      <c r="D388" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -5028,10 +6195,13 @@
         <v>26.2</v>
       </c>
       <c r="C389" s="1">
+        <v>3</v>
+      </c>
+      <c r="D389" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -5040,10 +6210,13 @@
         <v>37.9</v>
       </c>
       <c r="C390" s="1">
+        <v>3</v>
+      </c>
+      <c r="D390" s="1">
         <v>379</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -5052,10 +6225,13 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C391" s="1">
+        <v>3</v>
+      </c>
+      <c r="D391" s="1">
         <v>322</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -5064,10 +6240,13 @@
         <v>31.8</v>
       </c>
       <c r="C392" s="1">
+        <v>3</v>
+      </c>
+      <c r="D392" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -5076,10 +6255,13 @@
         <v>32.9</v>
       </c>
       <c r="C393" s="1">
+        <v>3</v>
+      </c>
+      <c r="D393" s="1">
         <v>329</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -5088,10 +6270,13 @@
         <v>24.8</v>
       </c>
       <c r="C394" s="1">
+        <v>3</v>
+      </c>
+      <c r="D394" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -5100,10 +6285,13 @@
         <v>28.7</v>
       </c>
       <c r="C395" s="1">
+        <v>3</v>
+      </c>
+      <c r="D395" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -5112,10 +6300,13 @@
         <v>26.7</v>
       </c>
       <c r="C396" s="1">
+        <v>3</v>
+      </c>
+      <c r="D396" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -5124,10 +6315,13 @@
         <v>27.3</v>
       </c>
       <c r="C397" s="1">
+        <v>3</v>
+      </c>
+      <c r="D397" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -5136,10 +6330,13 @@
         <v>33.9</v>
       </c>
       <c r="C398" s="1">
+        <v>3</v>
+      </c>
+      <c r="D398" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -5148,10 +6345,13 @@
         <v>34.5</v>
       </c>
       <c r="C399" s="1">
+        <v>3</v>
+      </c>
+      <c r="D399" s="1">
         <v>345</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -5160,10 +6360,13 @@
         <v>27.2</v>
       </c>
       <c r="C400" s="1">
+        <v>3</v>
+      </c>
+      <c r="D400" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -5172,10 +6375,13 @@
         <v>28.3</v>
       </c>
       <c r="C401" s="1">
+        <v>3</v>
+      </c>
+      <c r="D401" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -5184,10 +6390,13 @@
         <v>34.799999999999997</v>
       </c>
       <c r="C402" s="1">
+        <v>3</v>
+      </c>
+      <c r="D402" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -5196,10 +6405,13 @@
         <v>22.1</v>
       </c>
       <c r="C403" s="1">
+        <v>3</v>
+      </c>
+      <c r="D403" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -5208,10 +6420,13 @@
         <v>30.7</v>
       </c>
       <c r="C404" s="1">
+        <v>3</v>
+      </c>
+      <c r="D404" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -5220,10 +6435,13 @@
         <v>26.2</v>
       </c>
       <c r="C405" s="1">
+        <v>3</v>
+      </c>
+      <c r="D405" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -5232,10 +6450,13 @@
         <v>28</v>
       </c>
       <c r="C406" s="1">
+        <v>3</v>
+      </c>
+      <c r="D406" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -5244,10 +6465,13 @@
         <v>29.2</v>
       </c>
       <c r="C407" s="1">
+        <v>3</v>
+      </c>
+      <c r="D407" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -5256,10 +6480,13 @@
         <v>41.5</v>
       </c>
       <c r="C408" s="1">
+        <v>3</v>
+      </c>
+      <c r="D408" s="1">
         <v>415</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -5268,10 +6495,13 @@
         <v>28.7</v>
       </c>
       <c r="C409" s="1">
+        <v>3</v>
+      </c>
+      <c r="D409" s="1">
         <v>287</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -5280,10 +6510,13 @@
         <v>25.9</v>
       </c>
       <c r="C410" s="1">
+        <v>3</v>
+      </c>
+      <c r="D410" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -5292,10 +6525,13 @@
         <v>25.5</v>
       </c>
       <c r="C411" s="1">
+        <v>3</v>
+      </c>
+      <c r="D411" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -5304,10 +6540,13 @@
         <v>26.6</v>
       </c>
       <c r="C412" s="1">
+        <v>3</v>
+      </c>
+      <c r="D412" s="1">
         <v>266</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -5316,10 +6555,13 @@
         <v>38.4</v>
       </c>
       <c r="C413" s="1">
+        <v>3</v>
+      </c>
+      <c r="D413" s="1">
         <v>384</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -5328,10 +6570,13 @@
         <v>33.6</v>
       </c>
       <c r="C414" s="1">
+        <v>3</v>
+      </c>
+      <c r="D414" s="1">
         <v>336</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -5340,10 +6585,13 @@
         <v>36.299999999999997</v>
       </c>
       <c r="C415" s="1">
+        <v>3</v>
+      </c>
+      <c r="D415" s="1">
         <v>363</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -5352,10 +6600,13 @@
         <v>31.1</v>
       </c>
       <c r="C416" s="1">
+        <v>3</v>
+      </c>
+      <c r="D416" s="1">
         <v>311</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -5364,10 +6615,13 @@
         <v>26.7</v>
       </c>
       <c r="C417" s="1">
+        <v>3</v>
+      </c>
+      <c r="D417" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -5376,10 +6630,13 @@
         <v>31.3</v>
       </c>
       <c r="C418" s="1">
+        <v>3</v>
+      </c>
+      <c r="D418" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -5388,10 +6645,13 @@
         <v>33</v>
       </c>
       <c r="C419" s="1">
+        <v>3</v>
+      </c>
+      <c r="D419" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -5400,10 +6660,13 @@
         <v>23.2</v>
       </c>
       <c r="C420" s="1">
+        <v>3</v>
+      </c>
+      <c r="D420" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -5412,10 +6675,13 @@
         <v>23.5</v>
       </c>
       <c r="C421" s="1">
+        <v>3</v>
+      </c>
+      <c r="D421" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -5424,10 +6690,13 @@
         <v>25.5</v>
       </c>
       <c r="C422" s="1">
+        <v>3</v>
+      </c>
+      <c r="D422" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -5436,10 +6705,13 @@
         <v>31.4</v>
       </c>
       <c r="C423" s="1">
+        <v>3</v>
+      </c>
+      <c r="D423" s="1">
         <v>314</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -5448,10 +6720,13 @@
         <v>33.5</v>
       </c>
       <c r="C424" s="1">
+        <v>3</v>
+      </c>
+      <c r="D424" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -5460,10 +6735,13 @@
         <v>33.1</v>
       </c>
       <c r="C425" s="1">
+        <v>3</v>
+      </c>
+      <c r="D425" s="1">
         <v>331</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -5472,10 +6750,13 @@
         <v>27.3</v>
       </c>
       <c r="C426" s="1">
+        <v>3</v>
+      </c>
+      <c r="D426" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -5484,10 +6765,13 @@
         <v>33.9</v>
       </c>
       <c r="C427" s="1">
+        <v>3</v>
+      </c>
+      <c r="D427" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -5496,10 +6780,13 @@
         <v>35.1</v>
       </c>
       <c r="C428" s="1">
+        <v>3</v>
+      </c>
+      <c r="D428" s="1">
         <v>351</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -5508,10 +6795,13 @@
         <v>32.5</v>
       </c>
       <c r="C429" s="1">
+        <v>3</v>
+      </c>
+      <c r="D429" s="1">
         <v>325</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -5520,10 +6810,13 @@
         <v>25.7</v>
       </c>
       <c r="C430" s="1">
+        <v>3</v>
+      </c>
+      <c r="D430" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -5532,10 +6825,13 @@
         <v>30.1</v>
       </c>
       <c r="C431" s="1">
+        <v>3</v>
+      </c>
+      <c r="D431" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -5544,10 +6840,13 @@
         <v>28.6</v>
       </c>
       <c r="C432" s="1">
+        <v>3</v>
+      </c>
+      <c r="D432" s="1">
         <v>286</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -5556,10 +6855,13 @@
         <v>28.5</v>
       </c>
       <c r="C433" s="1">
+        <v>3</v>
+      </c>
+      <c r="D433" s="1">
         <v>285</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -5568,10 +6870,13 @@
         <v>28.3</v>
       </c>
       <c r="C434" s="1">
+        <v>3</v>
+      </c>
+      <c r="D434" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -5580,10 +6885,13 @@
         <v>27.8</v>
       </c>
       <c r="C435" s="1">
+        <v>3</v>
+      </c>
+      <c r="D435" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -5592,10 +6900,13 @@
         <v>34.200000000000003</v>
       </c>
       <c r="C436" s="1">
+        <v>3</v>
+      </c>
+      <c r="D436" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -5604,10 +6915,13 @@
         <v>32</v>
       </c>
       <c r="C437" s="1">
+        <v>3</v>
+      </c>
+      <c r="D437" s="1">
         <v>320</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -5616,10 +6930,13 @@
         <v>37.700000000000003</v>
       </c>
       <c r="C438" s="1">
+        <v>3</v>
+      </c>
+      <c r="D438" s="1">
         <v>377</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -5628,10 +6945,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="C439" s="1">
+        <v>3</v>
+      </c>
+      <c r="D439" s="1">
         <v>337</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -5640,10 +6960,13 @@
         <v>40</v>
       </c>
       <c r="C440" s="1">
+        <v>3</v>
+      </c>
+      <c r="D440" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -5652,10 +6975,13 @@
         <v>37</v>
       </c>
       <c r="C441" s="1">
+        <v>3</v>
+      </c>
+      <c r="D441" s="1">
         <v>370</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -5664,10 +6990,13 @@
         <v>37.9</v>
       </c>
       <c r="C442" s="1">
+        <v>3</v>
+      </c>
+      <c r="D442" s="1">
         <v>379</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -5676,10 +7005,13 @@
         <v>26.9</v>
       </c>
       <c r="C443" s="1">
+        <v>3</v>
+      </c>
+      <c r="D443" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -5688,10 +7020,13 @@
         <v>22.4</v>
       </c>
       <c r="C444" s="1">
+        <v>3</v>
+      </c>
+      <c r="D444" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -5700,10 +7035,13 @@
         <v>34.5</v>
       </c>
       <c r="C445" s="1">
+        <v>3</v>
+      </c>
+      <c r="D445" s="1">
         <v>345</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -5712,10 +7050,13 @@
         <v>26.9</v>
       </c>
       <c r="C446" s="1">
+        <v>3</v>
+      </c>
+      <c r="D446" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -5724,10 +7065,13 @@
         <v>36.799999999999997</v>
       </c>
       <c r="C447" s="1">
+        <v>3</v>
+      </c>
+      <c r="D447" s="1">
         <v>368</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -5736,10 +7080,13 @@
         <v>31.2</v>
       </c>
       <c r="C448" s="1">
+        <v>3</v>
+      </c>
+      <c r="D448" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -5748,10 +7095,13 @@
         <v>36.700000000000003</v>
       </c>
       <c r="C449" s="1">
+        <v>3</v>
+      </c>
+      <c r="D449" s="1">
         <v>367</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -5760,23 +7110,30 @@
         <v>35.799999999999997</v>
       </c>
       <c r="C450" s="1">
+        <v>3</v>
+      </c>
+      <c r="D450" s="1">
         <v>358</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <f t="shared" ref="B451" si="7">C451/10</f>
+        <f t="shared" ref="B451" si="7">D451/10</f>
         <v>34.799999999999997</v>
       </c>
       <c r="C451" s="1">
+        <v>3</v>
+      </c>
+      <c r="D451" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/resources/pop.xlsx
+++ b/resources/pop.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:D453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
